--- a/teaching/traditional_assets/database/data/kuwait/kuwait_publishing_newspapers.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_publishing_newspapers.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.169</v>
+        <v>-0.263</v>
       </c>
       <c r="G2">
-        <v>0.06031746031746032</v>
+        <v>0.007285714285714285</v>
       </c>
       <c r="H2">
-        <v>0.06031746031746032</v>
+        <v>0.007285714285714285</v>
       </c>
       <c r="I2">
-        <v>-0.04325396825396826</v>
+        <v>-0.06928571428571428</v>
       </c>
       <c r="J2">
-        <v>-0.04325396825396826</v>
+        <v>-0.06928571428571428</v>
       </c>
       <c r="K2">
-        <v>-71.90000000000001</v>
+        <v>-12.1</v>
       </c>
       <c r="L2">
-        <v>-2.853174603174604</v>
+        <v>-0.8642857142857142</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,55 +633,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="V2">
-        <v>0.08892733564013841</v>
+        <v>0.1619631901840491</v>
       </c>
       <c r="W2">
-        <v>-0.61400512382579</v>
+        <v>-0.2694877505567929</v>
       </c>
       <c r="X2">
-        <v>0.07979325294572141</v>
+        <v>0.07396738683503214</v>
       </c>
       <c r="Y2">
-        <v>-0.6937983767715113</v>
+        <v>-0.343455137391825</v>
       </c>
       <c r="Z2">
-        <v>-14.31818181818178</v>
+        <v>-7.106598984771578</v>
       </c>
       <c r="AA2">
-        <v>0.6193181818181801</v>
+        <v>0.4923857868020307</v>
       </c>
       <c r="AB2">
-        <v>0.06906667006589125</v>
+        <v>0.05843459339165084</v>
       </c>
       <c r="AC2">
-        <v>0.5502515117522888</v>
+        <v>0.4339511934103799</v>
       </c>
       <c r="AD2">
-        <v>8.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AG2">
-        <v>5.93</v>
+        <v>5.469999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2272727272727273</v>
+        <v>0.3322408848832445</v>
       </c>
       <c r="AI2">
-        <v>0.1591760299625468</v>
+        <v>0.2001974821031844</v>
       </c>
       <c r="AJ2">
-        <v>0.1702555268446741</v>
+        <v>0.2512632062471291</v>
       </c>
       <c r="AK2">
-        <v>0.116663387763132</v>
+        <v>0.1444415104304198</v>
       </c>
       <c r="AL2">
         <v>0.391</v>
@@ -690,16 +690,16 @@
         <v>0.391</v>
       </c>
       <c r="AN2">
-        <v>-11.48648648648649</v>
+        <v>-18.43181818181818</v>
       </c>
       <c r="AO2">
-        <v>-2.787723785166241</v>
+        <v>-2.48081841432225</v>
       </c>
       <c r="AP2">
-        <v>-8.013513513513514</v>
+        <v>-12.43181818181818</v>
       </c>
       <c r="AQ2">
-        <v>-2.787723785166241</v>
+        <v>-2.48081841432225</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.169</v>
+        <v>-0.263</v>
       </c>
       <c r="G3">
-        <v>0.06031746031746032</v>
+        <v>0.007285714285714285</v>
       </c>
       <c r="H3">
-        <v>0.06031746031746032</v>
+        <v>0.007285714285714285</v>
       </c>
       <c r="I3">
-        <v>-0.04325396825396826</v>
+        <v>-0.06928571428571428</v>
       </c>
       <c r="J3">
-        <v>-0.04325396825396826</v>
+        <v>-0.06928571428571428</v>
       </c>
       <c r="K3">
-        <v>-71.90000000000001</v>
+        <v>-12.1</v>
       </c>
       <c r="L3">
-        <v>-2.853174603174604</v>
+        <v>-0.8642857142857142</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="V3">
-        <v>0.08892733564013841</v>
+        <v>0.1619631901840491</v>
       </c>
       <c r="W3">
-        <v>-0.61400512382579</v>
+        <v>-0.2694877505567929</v>
       </c>
       <c r="X3">
-        <v>0.07979325294572141</v>
+        <v>0.07396738683503214</v>
       </c>
       <c r="Y3">
-        <v>-0.6937983767715113</v>
+        <v>-0.343455137391825</v>
       </c>
       <c r="Z3">
-        <v>-14.31818181818178</v>
+        <v>-7.106598984771578</v>
       </c>
       <c r="AA3">
-        <v>0.6193181818181801</v>
+        <v>0.4923857868020307</v>
       </c>
       <c r="AB3">
-        <v>0.06906667006589125</v>
+        <v>0.05843459339165084</v>
       </c>
       <c r="AC3">
-        <v>0.5502515117522888</v>
+        <v>0.4339511934103799</v>
       </c>
       <c r="AD3">
-        <v>8.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AG3">
-        <v>5.93</v>
+        <v>5.469999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.2272727272727273</v>
+        <v>0.3322408848832445</v>
       </c>
       <c r="AI3">
-        <v>0.1591760299625468</v>
+        <v>0.2001974821031844</v>
       </c>
       <c r="AJ3">
-        <v>0.1702555268446741</v>
+        <v>0.2512632062471291</v>
       </c>
       <c r="AK3">
-        <v>0.116663387763132</v>
+        <v>0.1444415104304198</v>
       </c>
       <c r="AL3">
         <v>0.391</v>
@@ -818,16 +818,16 @@
         <v>0.391</v>
       </c>
       <c r="AN3">
-        <v>-11.48648648648649</v>
+        <v>-18.43181818181818</v>
       </c>
       <c r="AO3">
-        <v>-2.787723785166241</v>
+        <v>-2.48081841432225</v>
       </c>
       <c r="AP3">
-        <v>-8.013513513513514</v>
+        <v>-12.43181818181818</v>
       </c>
       <c r="AQ3">
-        <v>-2.787723785166241</v>
+        <v>-2.48081841432225</v>
       </c>
     </row>
   </sheetData>
